--- a/results_svm_evaluation/svm_results_de_LDS_by_label_driven_mi_10_15.xlsx
+++ b/results_svm_evaluation/svm_results_de_LDS_by_label_driven_mi_10_15.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="selection_rate_0.25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="selection_rate_0.5" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.49311845258175</v>
+        <v>77.04253497002568</v>
       </c>
       <c r="C2" t="n">
-        <v>74.49311845258175</v>
+        <v>77.04253497002568</v>
       </c>
       <c r="D2" t="n">
-        <v>69.66318727390838</v>
+        <v>73.95639354676973</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.24612669659773</v>
+        <v>84.62616458619883</v>
       </c>
       <c r="C3" t="n">
-        <v>82.24612669659773</v>
+        <v>84.62616458619883</v>
       </c>
       <c r="D3" t="n">
-        <v>81.00087789676432</v>
+        <v>82.11096414971215</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.7101791537989</v>
+        <v>88.59531656848242</v>
       </c>
       <c r="C4" t="n">
-        <v>86.7101791537989</v>
+        <v>88.59531656848242</v>
       </c>
       <c r="D4" t="n">
-        <v>85.55556666257421</v>
+        <v>87.17540790733686</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.65581882196213</v>
+        <v>85.04779453109457</v>
       </c>
       <c r="C5" t="n">
-        <v>82.65581882196213</v>
+        <v>85.04779453109457</v>
       </c>
       <c r="D5" t="n">
-        <v>81.6799193548292</v>
+        <v>83.95399767868686</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.75061202951584</v>
+        <v>71.56342182890856</v>
       </c>
       <c r="C6" t="n">
-        <v>70.75061202951584</v>
+        <v>71.56342182890856</v>
       </c>
       <c r="D6" t="n">
-        <v>65.40427772489643</v>
+        <v>66.19821494165994</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.6801096895302</v>
+        <v>91.03824427546951</v>
       </c>
       <c r="C7" t="n">
-        <v>90.6801096895302</v>
+        <v>91.03824427546951</v>
       </c>
       <c r="D7" t="n">
-        <v>90.52788298798222</v>
+        <v>90.58650671359763</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.61444303151411</v>
+        <v>84.56777307762178</v>
       </c>
       <c r="C8" t="n">
-        <v>79.61444303151411</v>
+        <v>84.56777307762178</v>
       </c>
       <c r="D8" t="n">
-        <v>76.01986494991323</v>
+        <v>82.21306444982368</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.63062829263228</v>
+        <v>80.54888018062439</v>
       </c>
       <c r="C9" t="n">
-        <v>80.63062829263228</v>
+        <v>80.54888018062439</v>
       </c>
       <c r="D9" t="n">
-        <v>77.47216415915648</v>
+        <v>77.21660426790064</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.43545359388922</v>
+        <v>71.95875396845993</v>
       </c>
       <c r="C10" t="n">
-        <v>78.43545359388922</v>
+        <v>71.95875396845993</v>
       </c>
       <c r="D10" t="n">
-        <v>76.57468730629128</v>
+        <v>68.38236336757019</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.7201186861478</v>
+        <v>73.78134758951202</v>
       </c>
       <c r="C11" t="n">
-        <v>75.7201186861478</v>
+        <v>73.78134758951202</v>
       </c>
       <c r="D11" t="n">
-        <v>71.76677978667547</v>
+        <v>69.67313528678253</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.3640775439234</v>
+        <v>65.83223038261576</v>
       </c>
       <c r="C12" t="n">
-        <v>67.3640775439234</v>
+        <v>65.83223038261576</v>
       </c>
       <c r="D12" t="n">
-        <v>61.98055774113034</v>
+        <v>59.45758106488955</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.25251083486881</v>
+        <v>71.03530307355599</v>
       </c>
       <c r="C13" t="n">
-        <v>60.25251083486881</v>
+        <v>71.03530307355599</v>
       </c>
       <c r="D13" t="n">
-        <v>57.30951065058755</v>
+        <v>68.45393543892116</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.1386430678466</v>
+        <v>83.92330383480825</v>
       </c>
       <c r="C14" t="n">
-        <v>97.1386430678466</v>
+        <v>83.92330383480825</v>
       </c>
       <c r="D14" t="n">
-        <v>97.03098202535634</v>
+        <v>80.49001416818834</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.78942724418032</v>
+        <v>95.3234024515783</v>
       </c>
       <c r="C15" t="n">
-        <v>87.78942724418032</v>
+        <v>95.3234024515783</v>
       </c>
       <c r="D15" t="n">
-        <v>85.56714109217877</v>
+        <v>95.16873808685951</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.52212389380531</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>97.52212389380531</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>97.31128527901042</v>
+        <v>96.19948448610509</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80.80022606885295</v>
+        <v>81.43674253237485</v>
       </c>
       <c r="C17" t="n">
-        <v>80.80022606885295</v>
+        <v>81.43674253237485</v>
       </c>
       <c r="D17" t="n">
-        <v>78.32431232608364</v>
+        <v>78.7490937036536</v>
       </c>
     </row>
   </sheetData>

--- a/results_svm_evaluation/svm_results_de_LDS_by_label_driven_mi_10_15.xlsx
+++ b/results_svm_evaluation/svm_results_de_LDS_by_label_driven_mi_10_15.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\results_svm_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0365C9A7-ACBE-42E9-83C7-78ADED8816D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B156E4D-BF94-469D-84A7-4BD6DF3FCC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="selection_rate_0.1" sheetId="4" r:id="rId1"/>
-    <sheet name="selection_rate_0.25" sheetId="1" r:id="rId2"/>
-    <sheet name="selection_rate_0.5" sheetId="2" r:id="rId3"/>
-    <sheet name="selection_rate_0.75" sheetId="3" r:id="rId4"/>
+    <sheet name="selection_rate_0.1" sheetId="1" r:id="rId1"/>
+    <sheet name="selection_rate_0.25" sheetId="2" r:id="rId2"/>
+    <sheet name="selection_rate_0.5" sheetId="3" r:id="rId3"/>
+    <sheet name="selection_rate_0.75" sheetId="4" r:id="rId4"/>
+    <sheet name="selection_rate_1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>Subject-Experiment</t>
   </si>
@@ -89,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +119,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,16 +172,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -478,258 +503,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>70.086592444571323</v>
-      </c>
-      <c r="C2">
-        <v>70.086592444571323</v>
-      </c>
-      <c r="D2">
-        <v>65.851236909677283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>84.454709815828863</v>
-      </c>
-      <c r="C3">
-        <v>84.454709815828863</v>
-      </c>
-      <c r="D3">
-        <v>83.931672173771716</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>85.615965536034054</v>
-      </c>
-      <c r="C4">
-        <v>85.615965536034054</v>
-      </c>
-      <c r="D4">
-        <v>84.43456543121431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>74.460073184024083</v>
-      </c>
-      <c r="C5">
-        <v>74.460073184024083</v>
-      </c>
-      <c r="D5">
-        <v>73.047414147120705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>67.138902585662507</v>
-      </c>
-      <c r="C6">
-        <v>67.138902585662507</v>
-      </c>
-      <c r="D6">
-        <v>63.32644197537654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>76.938122302096048</v>
-      </c>
-      <c r="C7">
-        <v>76.938122302096048</v>
-      </c>
-      <c r="D7">
-        <v>75.471778767560025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>75.8688223946574</v>
-      </c>
-      <c r="C8">
-        <v>75.8688223946574</v>
-      </c>
-      <c r="D8">
-        <v>72.987599122224978</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>73.167501448974477</v>
-      </c>
-      <c r="C9">
-        <v>73.167501448974477</v>
-      </c>
-      <c r="D9">
-        <v>68.364298097856746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>73.161792057024712</v>
-      </c>
-      <c r="C10">
-        <v>73.161792057024712</v>
-      </c>
-      <c r="D10">
-        <v>70.818666365398798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>75.484130485557827</v>
-      </c>
-      <c r="C11">
-        <v>75.484130485557827</v>
-      </c>
-      <c r="D11">
-        <v>70.758768246815933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>63.055649270322412</v>
-      </c>
-      <c r="C12">
-        <v>63.055649270322412</v>
-      </c>
-      <c r="D12">
-        <v>58.262117955247973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>56.482928053010838</v>
-      </c>
-      <c r="C13">
-        <v>56.482928053010838</v>
-      </c>
-      <c r="D13">
-        <v>55.635263501504703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>98.17109144542772</v>
-      </c>
-      <c r="C14">
-        <v>98.17109144542772</v>
-      </c>
-      <c r="D14">
-        <v>98.137326141956137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>85.468386404726687</v>
-      </c>
-      <c r="C15">
-        <v>85.468386404726687</v>
-      </c>
-      <c r="D15">
-        <v>81.703637514589445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>95.368731563421832</v>
-      </c>
-      <c r="C16">
-        <v>95.368731563421832</v>
-      </c>
-      <c r="D16">
-        <v>94.772011403300937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>76.994893266089377</v>
-      </c>
-      <c r="C17">
-        <v>76.994893266089377</v>
-      </c>
-      <c r="D17">
-        <v>74.500186516907746</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -738,6 +511,258 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>70.086592444571323</v>
+      </c>
+      <c r="C2">
+        <v>70.086592444571323</v>
+      </c>
+      <c r="D2">
+        <v>65.851236909677283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>84.454709815828863</v>
+      </c>
+      <c r="C3">
+        <v>84.454709815828863</v>
+      </c>
+      <c r="D3">
+        <v>83.931672173771716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>85.615965536034054</v>
+      </c>
+      <c r="C4">
+        <v>85.615965536034054</v>
+      </c>
+      <c r="D4">
+        <v>84.43456543121431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>74.460073184024083</v>
+      </c>
+      <c r="C5">
+        <v>74.460073184024083</v>
+      </c>
+      <c r="D5">
+        <v>73.047414147120705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>67.138902585662507</v>
+      </c>
+      <c r="C6">
+        <v>67.138902585662507</v>
+      </c>
+      <c r="D6">
+        <v>63.32644197537654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>76.938122302096048</v>
+      </c>
+      <c r="C7">
+        <v>76.938122302096048</v>
+      </c>
+      <c r="D7">
+        <v>75.471778767560025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>75.8688223946574</v>
+      </c>
+      <c r="C8">
+        <v>75.8688223946574</v>
+      </c>
+      <c r="D8">
+        <v>72.987599122224978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>73.167501448974477</v>
+      </c>
+      <c r="C9">
+        <v>73.167501448974477</v>
+      </c>
+      <c r="D9">
+        <v>68.364298097856746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>73.161792057024712</v>
+      </c>
+      <c r="C10">
+        <v>73.161792057024712</v>
+      </c>
+      <c r="D10">
+        <v>70.818666365398798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>75.484130485557827</v>
+      </c>
+      <c r="C11">
+        <v>75.484130485557827</v>
+      </c>
+      <c r="D11">
+        <v>70.758768246815933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>63.055649270322412</v>
+      </c>
+      <c r="C12">
+        <v>63.055649270322412</v>
+      </c>
+      <c r="D12">
+        <v>58.262117955247973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>56.482928053010838</v>
+      </c>
+      <c r="C13">
+        <v>56.482928053010838</v>
+      </c>
+      <c r="D13">
+        <v>55.635263501504703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>98.17109144542772</v>
+      </c>
+      <c r="C14">
+        <v>98.17109144542772</v>
+      </c>
+      <c r="D14">
+        <v>98.137326141956137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>85.468386404726687</v>
+      </c>
+      <c r="C15">
+        <v>85.468386404726687</v>
+      </c>
+      <c r="D15">
+        <v>81.703637514589445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>95.368731563421832</v>
+      </c>
+      <c r="C16">
+        <v>95.368731563421832</v>
+      </c>
+      <c r="D16">
+        <v>94.772011403300937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>76.994893266089377</v>
+      </c>
+      <c r="C17">
+        <v>76.994893266089377</v>
+      </c>
+      <c r="D17">
+        <v>74.500186516907746</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,258 +1007,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>77.042534970025685</v>
-      </c>
-      <c r="C2">
-        <v>77.042534970025685</v>
-      </c>
-      <c r="D2">
-        <v>73.956393546769732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>84.626164586198826</v>
-      </c>
-      <c r="C3">
-        <v>84.626164586198826</v>
-      </c>
-      <c r="D3">
-        <v>82.110964149712146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>88.595316568482417</v>
-      </c>
-      <c r="C4">
-        <v>88.595316568482417</v>
-      </c>
-      <c r="D4">
-        <v>87.175407907336862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>85.047794531094567</v>
-      </c>
-      <c r="C5">
-        <v>85.047794531094567</v>
-      </c>
-      <c r="D5">
-        <v>83.953997678686861</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>71.56342182890856</v>
-      </c>
-      <c r="C6">
-        <v>71.56342182890856</v>
-      </c>
-      <c r="D6">
-        <v>66.198214941659941</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>91.038244275469509</v>
-      </c>
-      <c r="C7">
-        <v>91.038244275469509</v>
-      </c>
-      <c r="D7">
-        <v>90.586506713597629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>84.56777307762178</v>
-      </c>
-      <c r="C8">
-        <v>84.56777307762178</v>
-      </c>
-      <c r="D8">
-        <v>82.213064449823676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>80.548880180624394</v>
-      </c>
-      <c r="C9">
-        <v>80.548880180624394</v>
-      </c>
-      <c r="D9">
-        <v>77.216604267900635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>71.958753968459931</v>
-      </c>
-      <c r="C10">
-        <v>71.958753968459931</v>
-      </c>
-      <c r="D10">
-        <v>68.382363367570193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>73.781347589512023</v>
-      </c>
-      <c r="C11">
-        <v>73.781347589512023</v>
-      </c>
-      <c r="D11">
-        <v>69.673135286782525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>65.832230382615762</v>
-      </c>
-      <c r="C12">
-        <v>65.832230382615762</v>
-      </c>
-      <c r="D12">
-        <v>59.457581064889553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>71.035303073555994</v>
-      </c>
-      <c r="C13">
-        <v>71.035303073555994</v>
-      </c>
-      <c r="D13">
-        <v>68.453935438921164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>83.923303834808252</v>
-      </c>
-      <c r="C14">
-        <v>83.923303834808252</v>
-      </c>
-      <c r="D14">
-        <v>80.490014168188338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>95.323402451578303</v>
-      </c>
-      <c r="C15">
-        <v>95.323402451578303</v>
-      </c>
-      <c r="D15">
-        <v>95.168738086859506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>96.666666666666671</v>
-      </c>
-      <c r="C16">
-        <v>96.666666666666671</v>
-      </c>
-      <c r="D16">
-        <v>96.199484486105092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>81.436742532374851</v>
-      </c>
-      <c r="C17">
-        <v>81.436742532374851</v>
-      </c>
-      <c r="D17">
-        <v>78.7490937036536</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -1260,13 +1033,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>79.490912551146636</v>
+        <v>77.042534970025685</v>
       </c>
       <c r="C2">
-        <v>79.490912551146636</v>
+        <v>77.042534970025685</v>
       </c>
       <c r="D2">
-        <v>76.380847770127133</v>
+        <v>73.956393546769732</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1274,13 +1047,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>88.342459709859071</v>
+        <v>84.626164586198826</v>
       </c>
       <c r="C3">
-        <v>88.342459709859071</v>
+        <v>84.626164586198826</v>
       </c>
       <c r="D3">
-        <v>86.711278384079293</v>
+        <v>82.110964149712146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1288,13 +1061,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>88.803363350894031</v>
+        <v>88.595316568482417</v>
       </c>
       <c r="C4">
-        <v>88.803363350894031</v>
+        <v>88.595316568482417</v>
       </c>
       <c r="D4">
-        <v>87.66293525069996</v>
+        <v>87.175407907336862</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1302,13 +1075,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>83.902369397659157</v>
+        <v>85.047794531094567</v>
       </c>
       <c r="C5">
-        <v>83.902369397659157</v>
+        <v>85.047794531094567</v>
       </c>
       <c r="D5">
-        <v>83.058774792129768</v>
+        <v>83.953997678686861</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1316,13 +1089,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>78.291507712004432</v>
+        <v>71.56342182890856</v>
       </c>
       <c r="C6">
-        <v>78.291507712004432</v>
+        <v>71.56342182890856</v>
       </c>
       <c r="D6">
-        <v>73.276960524713417</v>
+        <v>66.198214941659941</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1330,13 +1103,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>91.154681268869098</v>
+        <v>91.038244275469509</v>
       </c>
       <c r="C7">
-        <v>91.154681268869098</v>
+        <v>91.038244275469509</v>
       </c>
       <c r="D7">
-        <v>90.772022319420813</v>
+        <v>90.586506713597629</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1344,13 +1117,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>85.220027854912232</v>
+        <v>84.56777307762178</v>
       </c>
       <c r="C8">
-        <v>85.220027854912232</v>
+        <v>84.56777307762178</v>
       </c>
       <c r="D8">
-        <v>83.585218608484311</v>
+        <v>82.213064449823676</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1358,13 +1131,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>83.010493170356156</v>
+        <v>80.548880180624394</v>
       </c>
       <c r="C9">
-        <v>83.010493170356156</v>
+        <v>80.548880180624394</v>
       </c>
       <c r="D9">
-        <v>82.449881919958827</v>
+        <v>77.216604267900635</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1372,13 +1145,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>78.838311750101639</v>
+        <v>71.958753968459931</v>
       </c>
       <c r="C10">
-        <v>78.838311750101639</v>
+        <v>71.958753968459931</v>
       </c>
       <c r="D10">
-        <v>77.983721304472454</v>
+        <v>68.382363367570193</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1386,13 +1159,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>66.200399657436492</v>
+        <v>73.781347589512023</v>
       </c>
       <c r="C11">
-        <v>66.200399657436492</v>
+        <v>73.781347589512023</v>
       </c>
       <c r="D11">
-        <v>61.170636513815637</v>
+        <v>69.673135286782525</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1400,13 +1173,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>66.211558923520101</v>
+        <v>65.832230382615762</v>
       </c>
       <c r="C12">
-        <v>66.211558923520101</v>
+        <v>65.832230382615762</v>
       </c>
       <c r="D12">
-        <v>59.879247298388819</v>
+        <v>59.457581064889553</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1414,13 +1187,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>69.111843528058188</v>
+        <v>71.035303073555994</v>
       </c>
       <c r="C13">
-        <v>69.111843528058188</v>
+        <v>71.035303073555994</v>
       </c>
       <c r="D13">
-        <v>66.581853792543072</v>
+        <v>68.453935438921164</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1428,13 +1201,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>80.724227718232854</v>
+        <v>83.923303834808252</v>
       </c>
       <c r="C14">
-        <v>80.724227718232854</v>
+        <v>83.923303834808252</v>
       </c>
       <c r="D14">
-        <v>77.105736563584969</v>
+        <v>80.490014168188338</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -1442,13 +1215,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>99.560117302052788</v>
+        <v>95.323402451578303</v>
       </c>
       <c r="C15">
-        <v>99.560117302052788</v>
+        <v>95.323402451578303</v>
       </c>
       <c r="D15">
-        <v>99.558733209247606</v>
+        <v>95.168738086859506</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -1456,13 +1229,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>95.545722713864308</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="C16">
-        <v>95.545722713864308</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="D16">
-        <v>94.46031374322061</v>
+        <v>96.199484486105092</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -1470,6 +1243,258 @@
         <v>19</v>
       </c>
       <c r="B17">
+        <v>81.436742532374851</v>
+      </c>
+      <c r="C17">
+        <v>81.436742532374851</v>
+      </c>
+      <c r="D17">
+        <v>78.7490937036536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>79.490912551146636</v>
+      </c>
+      <c r="C2">
+        <v>79.490912551146636</v>
+      </c>
+      <c r="D2">
+        <v>76.380847770127133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>88.342459709859071</v>
+      </c>
+      <c r="C3">
+        <v>88.342459709859071</v>
+      </c>
+      <c r="D3">
+        <v>86.711278384079293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>88.803363350894031</v>
+      </c>
+      <c r="C4">
+        <v>88.803363350894031</v>
+      </c>
+      <c r="D4">
+        <v>87.66293525069996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>83.902369397659157</v>
+      </c>
+      <c r="C5">
+        <v>83.902369397659157</v>
+      </c>
+      <c r="D5">
+        <v>83.058774792129768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>78.291507712004432</v>
+      </c>
+      <c r="C6">
+        <v>78.291507712004432</v>
+      </c>
+      <c r="D6">
+        <v>73.276960524713417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>91.154681268869098</v>
+      </c>
+      <c r="C7">
+        <v>91.154681268869098</v>
+      </c>
+      <c r="D7">
+        <v>90.772022319420813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>85.220027854912232</v>
+      </c>
+      <c r="C8">
+        <v>85.220027854912232</v>
+      </c>
+      <c r="D8">
+        <v>83.585218608484311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>83.010493170356156</v>
+      </c>
+      <c r="C9">
+        <v>83.010493170356156</v>
+      </c>
+      <c r="D9">
+        <v>82.449881919958827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>78.838311750101639</v>
+      </c>
+      <c r="C10">
+        <v>78.838311750101639</v>
+      </c>
+      <c r="D10">
+        <v>77.983721304472454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>66.200399657436492</v>
+      </c>
+      <c r="C11">
+        <v>66.200399657436492</v>
+      </c>
+      <c r="D11">
+        <v>61.170636513815637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>66.211558923520101</v>
+      </c>
+      <c r="C12">
+        <v>66.211558923520101</v>
+      </c>
+      <c r="D12">
+        <v>59.879247298388819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>69.111843528058188</v>
+      </c>
+      <c r="C13">
+        <v>69.111843528058188</v>
+      </c>
+      <c r="D13">
+        <v>66.581853792543072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>80.724227718232854</v>
+      </c>
+      <c r="C14">
+        <v>80.724227718232854</v>
+      </c>
+      <c r="D14">
+        <v>77.105736563584969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>99.560117302052788</v>
+      </c>
+      <c r="C15">
+        <v>99.560117302052788</v>
+      </c>
+      <c r="D15">
+        <v>99.558733209247606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>95.545722713864308</v>
+      </c>
+      <c r="C16">
+        <v>95.545722713864308</v>
+      </c>
+      <c r="D16">
+        <v>94.46031374322061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
         <v>82.29386644059781</v>
       </c>
       <c r="C17">
@@ -1477,6 +1502,258 @@
       </c>
       <c r="D17">
         <v>80.042544132992447</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>77.660792913433511</v>
+      </c>
+      <c r="C2">
+        <v>77.660792913433511</v>
+      </c>
+      <c r="D2">
+        <v>74.684104178471131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>87.930345418212966</v>
+      </c>
+      <c r="C3">
+        <v>87.930345418212966</v>
+      </c>
+      <c r="D3">
+        <v>85.543287802714261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>89.380530973451329</v>
+      </c>
+      <c r="C4">
+        <v>89.380530973451329</v>
+      </c>
+      <c r="D4">
+        <v>88.202313428319073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>80.826737255512583</v>
+      </c>
+      <c r="C5">
+        <v>80.826737255512583</v>
+      </c>
+      <c r="D5">
+        <v>77.918998903325033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>72.388774989403018</v>
+      </c>
+      <c r="C6">
+        <v>72.388774989403018</v>
+      </c>
+      <c r="D6">
+        <v>65.112135034193457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>90.414276940111947</v>
+      </c>
+      <c r="C7">
+        <v>90.414276940111947</v>
+      </c>
+      <c r="D7">
+        <v>89.961167523238359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>88.582859713319323</v>
+      </c>
+      <c r="C8">
+        <v>88.582859713319323</v>
+      </c>
+      <c r="D8">
+        <v>86.993889994272919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>85.244595541483918</v>
+      </c>
+      <c r="C9">
+        <v>85.244595541483918</v>
+      </c>
+      <c r="D9">
+        <v>84.851380632058408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>85.789582954869843</v>
+      </c>
+      <c r="C10">
+        <v>85.789582954869843</v>
+      </c>
+      <c r="D10">
+        <v>83.363154881548169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>72.631597159144988</v>
+      </c>
+      <c r="C11">
+        <v>72.631597159144988</v>
+      </c>
+      <c r="D11">
+        <v>70.405468872974197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>66.32799591691969</v>
+      </c>
+      <c r="C12">
+        <v>66.32799591691969</v>
+      </c>
+      <c r="D12">
+        <v>60.047377631872749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>67.550843865431375</v>
+      </c>
+      <c r="C13">
+        <v>67.550843865431375</v>
+      </c>
+      <c r="D13">
+        <v>64.105860699141857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>80.6775145113712</v>
+      </c>
+      <c r="C14">
+        <v>80.6775145113712</v>
+      </c>
+      <c r="D14">
+        <v>77.902616766862408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>99.442815249266872</v>
+      </c>
+      <c r="C15">
+        <v>99.442815249266872</v>
+      </c>
+      <c r="D15">
+        <v>99.443191253629635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>96.106194690265482</v>
+      </c>
+      <c r="C16">
+        <v>96.106194690265482</v>
+      </c>
+      <c r="D16">
+        <v>95.379409762543546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>82.730363872813214</v>
+      </c>
+      <c r="C17">
+        <v>82.730363872813214</v>
+      </c>
+      <c r="D17">
+        <v>80.26095715767768</v>
       </c>
     </row>
   </sheetData>
